--- a/biology/Médecine/Clariane/Clariane.xlsx
+++ b/biology/Médecine/Clariane/Clariane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clariane est un groupe spécialisé dans le soin, avec pour principale marque l'entreprise Korian.
 </t>
@@ -511,12 +523,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clariane est l'entité qui exploite le réseau Korian[1] (272 maisons de retraite médicalisées) et Inicea (110 établissements de santé)[2],[3]. C'est le 15 juin 2023 qu'est voté la création du groupe, disposant de la qualité de société à mission[4],[5].
-Au moment de son lancement, le groupe annonce qu'il créera sa propre université, qui permettra de suivre des formations allant du CAP au diplôme universitaire. L'université est prévue pour accueillir chaque année 6 500 collaborateurs dans le cadre de formations diplômantes[4].
-Le groupe, dont la gestion est confiée à Sophie Boissard, intègre les marques suivantes : Korian, Seniors Residencias, Berkley, Inicea, Ita, Grupo 5, Lebenswert, Petits-fils et Ages &amp; Vie[4], et opère au niveau européen[6].
-L'entreprise se positionne aussi dans la colocation pour séniors[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clariane est l'entité qui exploite le réseau Korian (272 maisons de retraite médicalisées) et Inicea (110 établissements de santé),. C'est le 15 juin 2023 qu'est voté la création du groupe, disposant de la qualité de société à mission,.
+Au moment de son lancement, le groupe annonce qu'il créera sa propre université, qui permettra de suivre des formations allant du CAP au diplôme universitaire. L'université est prévue pour accueillir chaque année 6 500 collaborateurs dans le cadre de formations diplômantes.
+Le groupe, dont la gestion est confiée à Sophie Boissard, intègre les marques suivantes : Korian, Seniors Residencias, Berkley, Inicea, Ita, Grupo 5, Lebenswert, Petits-fils et Ages &amp; Vie, et opère au niveau européen.
+L'entreprise se positionne aussi dans la colocation pour séniors.
 </t>
         </is>
       </c>
@@ -545,13 +559,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En juin 2023, Clariane conclut un partenariat avec Amundi Immobilier[8], Covéa, Crédit Agricole Assurances et Malakoff Humanis dans l'investissement d'un nouveau véhicule immobilier[9],[10], ainsi qu'avec la Banque des Territoires (Groupe Caisse Des dépôts) dans le cadre du développement de son réseau de santé en France[11],[12].
-En juillet 2023, Clariane ouvre son université. En décembre de la même année, 185 collaborateurs sortent diplômés[13],[14].
-En novembre 2023, le conseil d'administration annonce un plan de refinancement de 1,5 milliard d'euros[15]. L'opération consistant à éponger une partie de la dette du groupe[16] intègre refinancements, cessions d’actifs et augmentation de capital[17].
-En décembre 2023, Clariane signe un partenariat immobilier, pour un montant de 140 millions d’euros[18],[19], avec Crédit Agricole Assurances (son premier actionnaire), dans le cadre de son plan de refinancement[20],[21]. Le 29 décembre, Clariane finalise la première étape de son plan de refinancement[22],[23].
-En mai 2024, Clariane annonce avoir reçu une promesse d'achat de la Fondation Santé Service, pour son activité d'hospitalisation et de services de soins infirmiers à domicile[24],[25].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juin 2023, Clariane conclut un partenariat avec Amundi Immobilier, Covéa, Crédit Agricole Assurances et Malakoff Humanis dans l'investissement d'un nouveau véhicule immobilier ainsi qu'avec la Banque des Territoires (Groupe Caisse Des dépôts) dans le cadre du développement de son réseau de santé en France,.
+En juillet 2023, Clariane ouvre son université. En décembre de la même année, 185 collaborateurs sortent diplômés,.
+En novembre 2023, le conseil d'administration annonce un plan de refinancement de 1,5 milliard d'euros. L'opération consistant à éponger une partie de la dette du groupe intègre refinancements, cessions d’actifs et augmentation de capital.
+En décembre 2023, Clariane signe un partenariat immobilier, pour un montant de 140 millions d’euros avec Crédit Agricole Assurances (son premier actionnaire), dans le cadre de son plan de refinancement,. Le 29 décembre, Clariane finalise la première étape de son plan de refinancement,.
+En mai 2024, Clariane annonce avoir reçu une promesse d'achat de la Fondation Santé Service, pour son activité d'hospitalisation et de services de soins infirmiers à domicile,.
 </t>
         </is>
       </c>
@@ -581,6 +597,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
